--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna4-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna4-Epha5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,25 +525,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2970003333333334</v>
+        <v>0.3747116666666667</v>
       </c>
       <c r="H2">
-        <v>0.891001</v>
+        <v>1.124135</v>
       </c>
       <c r="I2">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="J2">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,33 +552,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.008504666666666666</v>
+        <v>0.0002903333333333334</v>
       </c>
       <c r="N2">
-        <v>0.025514</v>
+        <v>0.000871</v>
       </c>
       <c r="O2">
-        <v>0.428094431114616</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.428094431114616</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.002525888834888889</v>
+        <v>0.0001087912872222223</v>
       </c>
       <c r="R2">
-        <v>0.022732999514</v>
+        <v>0.0009791215850000002</v>
       </c>
       <c r="S2">
-        <v>0.1331652092887735</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="T2">
-        <v>0.1331652092887735</v>
+        <v>0.3914669751594584</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,22 +590,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2970003333333334</v>
+        <v>0.401547</v>
       </c>
       <c r="H3">
-        <v>0.891001</v>
+        <v>1.204641</v>
       </c>
       <c r="I3">
-        <v>0.3110650352121035</v>
+        <v>0.4195022558883632</v>
       </c>
       <c r="J3">
-        <v>0.3110650352121035</v>
+        <v>0.4195022558883631</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,33 +614,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.01136166666666667</v>
+        <v>0.0002903333333333334</v>
       </c>
       <c r="N3">
-        <v>0.034085</v>
+        <v>0.000871</v>
       </c>
       <c r="O3">
-        <v>0.571905568885384</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.571905568885384</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.003374418787222223</v>
+        <v>0.000116582479</v>
       </c>
       <c r="R3">
-        <v>0.030369769085</v>
+        <v>0.001049242311</v>
       </c>
       <c r="S3">
-        <v>0.1778998259233301</v>
+        <v>0.4195022558883632</v>
       </c>
       <c r="T3">
-        <v>0.1778998259233301</v>
+        <v>0.4195022558883631</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,25 +649,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.401547</v>
+        <v>0.18094</v>
       </c>
       <c r="H4">
-        <v>1.204641</v>
+        <v>0.54282</v>
       </c>
       <c r="I4">
-        <v>0.4205625976659326</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="J4">
-        <v>0.4205625976659326</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,214 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.008504666666666666</v>
+        <v>0.0002903333333333334</v>
       </c>
       <c r="N4">
-        <v>0.025514</v>
+        <v>0.000871</v>
       </c>
       <c r="O4">
-        <v>0.428094431114616</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.428094431114616</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.003415023386</v>
+        <v>5.253291333333334E-05</v>
       </c>
       <c r="R4">
-        <v>0.030735210474</v>
+        <v>0.00047279622</v>
       </c>
       <c r="S4">
-        <v>0.1800405059958826</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="T4">
-        <v>0.1800405059958826</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.401547</v>
-      </c>
-      <c r="H5">
-        <v>1.204641</v>
-      </c>
-      <c r="I5">
-        <v>0.4205625976659326</v>
-      </c>
-      <c r="J5">
-        <v>0.4205625976659326</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.01136166666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.034085</v>
-      </c>
-      <c r="O5">
-        <v>0.571905568885384</v>
-      </c>
-      <c r="P5">
-        <v>0.571905568885384</v>
-      </c>
-      <c r="Q5">
-        <v>0.004562243165000001</v>
-      </c>
-      <c r="R5">
-        <v>0.04106018848500001</v>
-      </c>
-      <c r="S5">
-        <v>0.2405220916700501</v>
-      </c>
-      <c r="T5">
-        <v>0.2405220916700501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.256238</v>
-      </c>
-      <c r="H6">
-        <v>0.7687139999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.2683723671219638</v>
-      </c>
-      <c r="J6">
-        <v>0.2683723671219639</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.008504666666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.025514</v>
-      </c>
-      <c r="O6">
-        <v>0.428094431114616</v>
-      </c>
-      <c r="P6">
-        <v>0.428094431114616</v>
-      </c>
-      <c r="Q6">
-        <v>0.002179218777333333</v>
-      </c>
-      <c r="R6">
-        <v>0.019612968996</v>
-      </c>
-      <c r="S6">
-        <v>0.11488871582996</v>
-      </c>
-      <c r="T6">
-        <v>0.11488871582996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.256238</v>
-      </c>
-      <c r="H7">
-        <v>0.7687139999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.2683723671219638</v>
-      </c>
-      <c r="J7">
-        <v>0.2683723671219639</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.01136166666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.034085</v>
-      </c>
-      <c r="O7">
-        <v>0.571905568885384</v>
-      </c>
-      <c r="P7">
-        <v>0.571905568885384</v>
-      </c>
-      <c r="Q7">
-        <v>0.002911290743333333</v>
-      </c>
-      <c r="R7">
-        <v>0.02620161669</v>
-      </c>
-      <c r="S7">
-        <v>0.1534836512920039</v>
-      </c>
-      <c r="T7">
-        <v>0.1534836512920039</v>
+        <v>0.1890307689521785</v>
       </c>
     </row>
   </sheetData>
